--- a/src/test/java/testdata/datasourcefirefox.xlsx
+++ b/src/test/java/testdata/datasourcefirefox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDB155-4581-46B7-8295-CD352906C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647E388-857B-4788-9BAC-AC9B46CA25AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Chaussure</t>
+  </si>
+  <si>
+    <t>dou</t>
+  </si>
+  <si>
+    <t>fafnirfafnir</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB652C9F-099A-41F8-9006-2103D7CEE8EC}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,13 +476,49 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{867C897D-6E34-40DF-A5DF-3E65FCD36955}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{E6BED684-5E26-4735-BBC3-17F39F801CEB}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{1C3AD61B-DC2E-4F9A-B0D2-0611CBFFE12E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{8485E419-D135-4C6D-AC6E-7C2102A98B19}"/>
+    <hyperlink ref="A6" r:id="rId5" display="fafnirfafnir@gmail.com" xr:uid="{2C5D7DB8-ECA5-4AD1-8848-CBB2A0D52F82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -485,7 +527,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
